--- a/kintone-lookup-upfater使い方.xlsx
+++ b/kintone-lookup-upfater使い方.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcmente\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcmente\Desktop\scs199204\kintone\plugin\Source\kintone-lookup-updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7A3780-A238-4184-8343-96F4CBD367D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC01F84-7D63-4660-8D15-CF10C54CA323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4D7B9153-91E4-4271-88A6-CDD3C3A98849}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4D7B9153-91E4-4271-88A6-CDD3C3A98849}"/>
   </bookViews>
   <sheets>
     <sheet name="設定内容" sheetId="1" r:id="rId1"/>
     <sheet name="設定例" sheetId="2" r:id="rId2"/>
+    <sheet name="処理仕様(desktop)" sheetId="3" r:id="rId3"/>
+    <sheet name="APIリクエスト数" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="225">
   <si>
     <t>対象更新アプリ</t>
     <rPh sb="0" eb="4">
@@ -627,6 +629,1437 @@
     <rPh sb="7" eb="9">
       <t>ナイヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコード一覧画面表示(app.record.index.show)の際に以下のボタン追加</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン名称</t>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設置位置</t>
+    <rPh sb="0" eb="2">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルックアップ更新</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIリクエスト数</t>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自アプリ</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自アプリ以外</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自アプリへのルックアップなし</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1加算</t>
+    <rPh sb="1" eb="3">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自アプリへのルックアップあり</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加算なし</t>
+    <rPh sb="0" eb="2">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データあり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新なし</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新あり</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド情報取得</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新処理</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索対象アプリで、レコード数2,000件(うち更新件数1,200件の場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>コウシンケンスウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド情報取得(+1)、レコード取得(+4)、更新(+3)→8加算される</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定時</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新時</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新レコード500件毎に1加算</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコード500件毎に1加算
+(10,000件まで)</t>
+    <rPh sb="11" eb="13">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコード500件毎に1加算
+(10,000件まで)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコード更新対象の判定</t>
+    <rPh sb="4" eb="8">
+      <t>コウシンタイショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除済レコードに対するルックアップかどうかを判定するために読込む</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヨミコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2025年9月のアップデート後にJavscript APIへ変更すること</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダ部分</t>
+    <rPh sb="3" eb="5">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ボタン追加</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.ボタンクリック時の処理</t>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新対象アプリ以外</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新対象アプリ</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブドメイン内の全てのアプリから更新対象アプリを抽出</t>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>コウシンタイショウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新対象アプリのレコード取得</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新対象アプリのレコード更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下の順序で処理が行われる。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)ローディング画面表示</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローディング画面表示</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローディング画面非表示</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列(1行)</t>
+  </si>
+  <si>
+    <t>計算</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコード番号</t>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルックアップ参照元</t>
+    <rPh sb="6" eb="9">
+      <t>サンショウモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※フィールドタイプ毎の設定可能項目(2025/9/2現在)</t>
+    <rPh sb="9" eb="10">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>セッテイカノウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のどちらかの条件に合致するフィールドを抽出</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガッチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①重複禁止を設定している全てのフィールド</t>
+    <rPh sb="1" eb="5">
+      <t>チョウフクキンシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②プラグイン設定画面で指定したフィールド</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際に設定できるのは文字列(1行)、数値、リンクのみ</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②上記(2)で抽出したフィールドの値をフィールド毎にSetで取得</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列よりも、Setの方が検索時の処理速度が早いため</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①サブドメイン内の全てのアプリの情報をkintone REST APIで取得する。(100件ずつ)</t>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全て</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したアプリのみ</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したアプリ以外</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自アプリ以外の全アプリ</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象アプリ一覧に設定されている全アプリ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象アプリ一覧に設定されているアプリ以外の全アプリ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象になるアプリ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自アプリ指定不可(プラグインの設定)</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理中に他の操作が行われないように、ローディング画面を表示する。</t>
+    <rPh sb="0" eb="3">
+      <t>ショリチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①自アプリのレコードをkintone REST APIで全件取得</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ゼンケンシュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1リクエストで500件取得可能、10,000件まで)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新対象アプリから、自アプリをルックアップの参照元に設定しているフィールドを抽出</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>サンショウモト</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①上記(4)で抽出されたアプリのアプリ情報を、kintone REST APIで取得する</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②フィールド情報(サブテーブルの場合、サブテーブル内のフィールド)から</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルックアップフィールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関連付けたアプリのアプリID
+(ルックアップ参照元)が自アプリ</t>
+    <rPh sb="22" eb="25">
+      <t>サンショウモト</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照元のフィールドが、
+上記(2)で抽出したフィールド</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「lookup」のプロパティがあるか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「lookup.relatedApp.app」が自アプリと同じか</t>
+    <rPh sb="24" eb="25">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「lookup.relatedKeyField」が(2)で抽出したフィールに存在するか</t>
+    <rPh sb="29" eb="31">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定内容</t>
+    <rPh sb="0" eb="4">
+      <t>ハンテイナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6)更新対象アプリのレコード取得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　以下の条件に合致するフィールドを更新対象フィールドとして抽出する。</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガッチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4)サブドメイン内の全てのアプリから全アプリを抽出</t>
+    <rPh sb="19" eb="20">
+      <t>ゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②プラグインの設定内容に応じて以下の通り全アプリを抽出する</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③更新対象フィールドがあるアプリを、更新対象アプリとして抽出する。</t>
+    <rPh sb="1" eb="5">
+      <t>コウシンタイショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5)全アプリから、自アプリをルックアップの参照元に設定しているフィールドを抽出</t>
+    <rPh sb="3" eb="4">
+      <t>ゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①kintone REST APIの抽出条件(query)をプラグインの設定内容に応じて作成</t>
+    <rPh sb="18" eb="20">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「作成日」</t>
+    <rPh sb="1" eb="4">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「更新日」</t>
+    <rPh sb="1" eb="4">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定日</t>
+    <rPh sb="0" eb="3">
+      <t>シテイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定日以前</t>
+    <rPh sb="0" eb="3">
+      <t>シテイビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定日以後</t>
+    <rPh sb="0" eb="3">
+      <t>シテイビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし(全件抽出)</t>
+    <rPh sb="3" eb="5">
+      <t>ゼンケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日時 &gt;= 日付の0時0分0秒 AND 
+作成日時 &lt;= 日付の23時59分59秒</t>
+    <rPh sb="8" eb="10">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時 &gt;= 日付の0時0分0秒 AND 
+更新日時 &lt;= 日付の23時59分59秒</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日時、更新日時は年月日時分秒まで持っている。</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ジフンビョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日時 &lt;= 日付の23時59分59秒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日時 &gt;= 日付の0時0分0秒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時 &gt;= 日付の0時0分0秒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時 &lt;= 日付の23時59分59秒</t>
+    <rPh sb="8" eb="10">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③ルックアップフィールドの更新</t>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②更新対象アプリのレコードをkintone REST APIで取得</t>
+    <rPh sb="31" eb="33">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件は上記のqueryの通り</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※相関図</t>
+    <rPh sb="1" eb="4">
+      <t>ソウカンズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルックアップキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A0002</t>
+  </si>
+  <si>
+    <t>←</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自アプリに値がないので更新しない</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>lookup.relatedKeyFieldが</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ルックアップキー</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>更新対象アプリの「キー」が、
+自アプリの「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ルックアップキー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」を参照している場合</t>
+    </r>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得したレコードで、更新対象フィールド(上記(5)で作成)の値が</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下の条件に合致する場合、フィールドの更新を行う</t>
+  </si>
+  <si>
+    <t>・サブテーブル内のフィールドの場合も同様の判定を行う</t>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・同じ値で更新すると、ルックアップされる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イ.入力されている</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロ.上記(3)で作成した自アプリのフィールド値に存在する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値があるので更新</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A0003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3)自アプリの全レコードから、自アプリのフィールド値作成</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自アプリの全レコードから、自アプリのフィールド値作成</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)自アプリのフィールド情報を取得し、ルックアップ参照元フィールドを抽出</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>サンショウモト</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自アプリのフィールド情報を取得し、ルックアップ参照元フィールドを抽出</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルックアップ参照元</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブドメイン内の全アプリ</t>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラグインの設定内容に応じて抽出</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自アプリのルックアップ参照元をルックアップ</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しているアプリを抽出</t>
+    <rPh sb="8" eb="10">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抽出した各アプリのレコード</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>queryで抽出</t>
+    <rPh sb="6" eb="8">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルックアップ参照元の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのフィールド値</t>
+  </si>
+  <si>
+    <t>レコード更新</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自アプリのルックアップ参照元をルックアップしている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリを抽出フィールドの値が、ルックアップ参照元の</t>
+    <rPh sb="4" eb="6">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド値に存在している</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -634,7 +2067,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -658,8 +2091,35 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,6 +2147,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,150 +2311,240 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1406,8 +2962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C33C152-84C8-44B2-9C69-199443DEDE77}">
   <dimension ref="A32:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1419,248 +2975,242 @@
   </cols>
   <sheetData>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="12"/>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17" t="s">
+      <c r="C33" s="14"/>
+      <c r="D33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="12"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="3" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="12"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="3" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="11"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="3" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
     </row>
     <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A38" s="9"/>
-      <c r="B38" s="27" t="s">
+      <c r="A38" s="5"/>
+      <c r="B38" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
     </row>
     <row r="40" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A40" s="12"/>
-      <c r="B40" s="19" t="s">
+      <c r="A40" s="17"/>
+      <c r="B40" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="17" t="s">
+      <c r="C40" s="21"/>
+      <c r="D40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A41" s="12"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="14" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A42" s="11"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="14" t="s">
+      <c r="A42" s="18"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="12"/>
-      <c r="B44" s="15" t="s">
+      <c r="A44" s="17"/>
+      <c r="B44" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="26"/>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="12"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="3" t="s">
+      <c r="A45" s="17"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="3"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="12"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="3" t="s">
+      <c r="A46" s="17"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="3"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="12"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="3" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="3"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A48" s="12"/>
-      <c r="B48" s="25" t="s">
+      <c r="A48" s="17"/>
+      <c r="B48" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="17" t="s">
+      <c r="C48" s="9"/>
+      <c r="D48" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="12"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="3" t="s">
+      <c r="A49" s="17"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="12"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="3" t="s">
+      <c r="A50" s="17"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="12"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="3" t="s">
+      <c r="A51" s="17"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A52" s="11"/>
-      <c r="B52" s="27" t="s">
+      <c r="A52" s="18"/>
+      <c r="B52" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="17" t="s">
+      <c r="C52" s="14"/>
+      <c r="D52" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="8" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="A37:E37"/>
@@ -1671,6 +3221,12 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1682,1118 +3238,1112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB010A5-D891-40E8-881C-F65E071DD3FB}">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:B49"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="6" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="32" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="29" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="32" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="29" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="32" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="32" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="6" t="s">
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6" t="s">
+      <c r="J9" s="29"/>
+      <c r="K9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="32" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29" t="s">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="32" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29" t="s">
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="32" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29" t="s">
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="6" t="s">
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6" t="s">
+      <c r="J15" s="29"/>
+      <c r="K15" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="32" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29" t="s">
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="32" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29" t="s">
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="32" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29" t="s">
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="6" t="s">
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6" t="s">
+      <c r="J21" s="29"/>
+      <c r="K21" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="32" t="s">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29" t="s">
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="32" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29" t="s">
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="32" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29" t="s">
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43" t="s">
+      <c r="F27" s="37"/>
+      <c r="G27" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="6" t="s">
+      <c r="H27" s="39"/>
+      <c r="I27" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="7" t="s">
+      <c r="J27" s="29"/>
+      <c r="K27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M27" s="28"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="37"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="38" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38" t="s">
+      <c r="F28" s="27"/>
+      <c r="G28" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38" t="s">
+      <c r="H28" s="27"/>
+      <c r="I28" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="J28" s="38"/>
-      <c r="K28" s="39">
+      <c r="J28" s="27"/>
+      <c r="K28" s="2">
         <v>100</v>
       </c>
-      <c r="M28" s="28"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="37"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="38" t="s">
+      <c r="A29" s="36"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38" t="s">
+      <c r="F29" s="27"/>
+      <c r="G29" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38" t="s">
+      <c r="H29" s="27"/>
+      <c r="I29" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="J29" s="38"/>
-      <c r="K29" s="39">
+      <c r="J29" s="27"/>
+      <c r="K29" s="2">
         <v>200</v>
       </c>
-      <c r="M29" s="28"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="37"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="38" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38" t="s">
+      <c r="F30" s="27"/>
+      <c r="G30" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38" t="s">
+      <c r="H30" s="27"/>
+      <c r="I30" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="J30" s="38"/>
-      <c r="K30" s="39">
+      <c r="J30" s="27"/>
+      <c r="K30" s="2">
         <v>300</v>
       </c>
-      <c r="M30" s="28"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="37"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="38" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38" t="s">
+      <c r="F31" s="27"/>
+      <c r="G31" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38" t="s">
+      <c r="H31" s="27"/>
+      <c r="I31" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J31" s="38"/>
-      <c r="K31" s="40">
+      <c r="J31" s="27"/>
+      <c r="K31" s="2">
         <v>400</v>
       </c>
-      <c r="M31" s="36"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E34" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="6" t="s">
+      <c r="F34" s="37"/>
+      <c r="G34" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="7" t="s">
+      <c r="H34" s="29"/>
+      <c r="I34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="M34" s="10" t="s">
+      <c r="M34" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="N34" s="10" t="s">
+      <c r="N34" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="O34" s="10" t="s">
+      <c r="O34" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A35" s="37">
+      <c r="A35" s="36">
         <v>45658</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="37">
+      <c r="B35" s="27"/>
+      <c r="C35" s="36">
         <v>45668</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="38" t="s">
+      <c r="D35" s="27"/>
+      <c r="E35" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38" t="s">
+      <c r="F35" s="27"/>
+      <c r="G35" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="H35" s="38"/>
-      <c r="I35" s="39">
+      <c r="H35" s="27"/>
+      <c r="I35" s="2">
         <v>100</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="J35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K35" s="13" t="s">
+      <c r="K35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13" t="s">
+      <c r="L35" s="1"/>
+      <c r="M35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N35" s="13" t="s">
+      <c r="N35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O35" s="13"/>
+      <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A36" s="37">
+      <c r="A36" s="36">
         <v>45658</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="37">
+      <c r="B36" s="27"/>
+      <c r="C36" s="36">
         <v>45668</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="38" t="s">
+      <c r="D36" s="27"/>
+      <c r="E36" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38" t="s">
+      <c r="F36" s="27"/>
+      <c r="G36" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="39">
+      <c r="H36" s="27"/>
+      <c r="I36" s="2">
         <v>700</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A37" s="37">
+      <c r="A37" s="36">
         <v>45659</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="37">
+      <c r="B37" s="27"/>
+      <c r="C37" s="36">
         <v>45669</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="38" t="s">
+      <c r="D37" s="27"/>
+      <c r="E37" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38" t="s">
+      <c r="F37" s="27"/>
+      <c r="G37" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="38"/>
-      <c r="I37" s="39">
+      <c r="H37" s="27"/>
+      <c r="I37" s="2">
         <v>200</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="13" t="s">
+      <c r="K37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13" t="s">
+      <c r="L37" s="1"/>
+      <c r="M37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N37" s="13" t="s">
+      <c r="N37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O37" s="13"/>
+      <c r="O37" s="1"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A38" s="37">
+      <c r="A38" s="36">
         <v>45660</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="37">
+      <c r="B38" s="27"/>
+      <c r="C38" s="36">
         <v>45670</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="38" t="s">
+      <c r="D38" s="27"/>
+      <c r="E38" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38" t="s">
+      <c r="F38" s="27"/>
+      <c r="G38" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H38" s="38"/>
-      <c r="I38" s="39">
+      <c r="H38" s="27"/>
+      <c r="I38" s="2">
         <v>300</v>
       </c>
-      <c r="J38" s="13" t="s">
+      <c r="J38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K38" s="13" t="s">
+      <c r="K38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13" t="s">
+      <c r="L38" s="1"/>
+      <c r="M38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="29"/>
+      <c r="C41" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="42"/>
-      <c r="G41" s="6" t="s">
+      <c r="F41" s="37"/>
+      <c r="G41" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="7" t="s">
+      <c r="H41" s="29"/>
+      <c r="I41" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="K41" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="L41" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="M41" s="10" t="s">
+      <c r="M41" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="N41" s="10" t="s">
+      <c r="N41" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="O41" s="10" t="s">
+      <c r="O41" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A42" s="37">
+      <c r="A42" s="36">
         <v>45658</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="37">
+      <c r="B42" s="27"/>
+      <c r="C42" s="36">
         <v>45668</v>
       </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="38" t="s">
+      <c r="D42" s="27"/>
+      <c r="E42" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38" t="s">
+      <c r="F42" s="27"/>
+      <c r="G42" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="38"/>
-      <c r="I42" s="39">
+      <c r="H42" s="27"/>
+      <c r="I42" s="2">
         <v>100</v>
       </c>
-      <c r="J42" s="13" t="s">
+      <c r="J42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13" t="s">
+      <c r="K42" s="1"/>
+      <c r="L42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M42" s="13" t="s">
+      <c r="M42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N42" s="13" t="s">
+      <c r="N42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O42" s="13" t="s">
+      <c r="O42" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A43" s="37">
+      <c r="A43" s="36">
         <v>45659</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="37">
+      <c r="B43" s="27"/>
+      <c r="C43" s="36">
         <v>45669</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="38" t="s">
+      <c r="D43" s="27"/>
+      <c r="E43" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38" t="s">
+      <c r="F43" s="27"/>
+      <c r="G43" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="H43" s="38"/>
-      <c r="I43" s="39">
+      <c r="H43" s="27"/>
+      <c r="I43" s="2">
         <v>200</v>
       </c>
-      <c r="J43" s="13" t="s">
+      <c r="J43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13" t="s">
+      <c r="K43" s="1"/>
+      <c r="L43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M43" s="13" t="s">
+      <c r="M43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N43" s="13" t="s">
+      <c r="N43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O43" s="13" t="s">
+      <c r="O43" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A44" s="37">
+      <c r="A44" s="36">
         <v>45660</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="37">
+      <c r="B44" s="27"/>
+      <c r="C44" s="36">
         <v>45670</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="38" t="s">
+      <c r="D44" s="27"/>
+      <c r="E44" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38" t="s">
+      <c r="F44" s="27"/>
+      <c r="G44" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H44" s="38"/>
-      <c r="I44" s="39">
+      <c r="H44" s="27"/>
+      <c r="I44" s="2">
         <v>300</v>
       </c>
-      <c r="J44" s="13" t="s">
+      <c r="J44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13" t="s">
+      <c r="K44" s="1"/>
+      <c r="L44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M44" s="13" t="s">
+      <c r="M44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="29"/>
+      <c r="C47" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="E47" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="43"/>
-      <c r="G47" s="6" t="s">
+      <c r="F47" s="39"/>
+      <c r="G47" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="7" t="s">
+      <c r="H47" s="29"/>
+      <c r="I47" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K47" s="10" t="s">
+      <c r="K47" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L47" s="10" t="s">
+      <c r="L47" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="M47" s="10" t="s">
+      <c r="M47" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="N47" s="10" t="s">
+      <c r="N47" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="O47" s="10" t="s">
+      <c r="O47" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A48" s="37">
+      <c r="A48" s="36">
         <v>45658</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="37">
+      <c r="B48" s="27"/>
+      <c r="C48" s="36">
         <v>45668</v>
       </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="38" t="s">
+      <c r="D48" s="27"/>
+      <c r="E48" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38" t="s">
+      <c r="F48" s="27"/>
+      <c r="G48" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="H48" s="38"/>
-      <c r="I48" s="39">
+      <c r="H48" s="27"/>
+      <c r="I48" s="2">
         <v>100</v>
       </c>
-      <c r="J48" s="13" t="s">
+      <c r="J48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13" t="s">
+      <c r="K48" s="1"/>
+      <c r="L48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13" t="s">
+      <c r="M48" s="1"/>
+      <c r="N48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O48" s="13"/>
+      <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A49" s="37">
+      <c r="A49" s="36">
         <v>45659</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="37">
+      <c r="B49" s="27"/>
+      <c r="C49" s="36">
         <v>45669</v>
       </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="38" t="s">
+      <c r="D49" s="27"/>
+      <c r="E49" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38" t="s">
+      <c r="F49" s="27"/>
+      <c r="G49" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="H49" s="38"/>
-      <c r="I49" s="39">
+      <c r="H49" s="27"/>
+      <c r="I49" s="2">
         <v>200</v>
       </c>
-      <c r="J49" s="13" t="s">
+      <c r="J49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13" t="s">
+      <c r="K49" s="1"/>
+      <c r="L49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13" t="s">
+      <c r="M49" s="1"/>
+      <c r="N49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O49" s="13"/>
+      <c r="O49" s="1"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A50" s="37">
+      <c r="A50" s="36">
         <v>45660</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="37">
+      <c r="B50" s="27"/>
+      <c r="C50" s="36">
         <v>45670</v>
       </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="38" t="s">
+      <c r="D50" s="27"/>
+      <c r="E50" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38" t="s">
+      <c r="F50" s="27"/>
+      <c r="G50" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H50" s="38"/>
-      <c r="I50" s="39">
+      <c r="H50" s="27"/>
+      <c r="I50" s="2">
         <v>300</v>
       </c>
-      <c r="J50" s="13" t="s">
+      <c r="J50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13" t="s">
+      <c r="K50" s="1"/>
+      <c r="L50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
@@ -2801,175 +4351,175 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A53" s="46"/>
-      <c r="B53" s="47" t="s">
+      <c r="A53" s="12"/>
+      <c r="B53" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47" t="s">
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47" t="s">
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A54" s="44" t="s">
+      <c r="A54" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45" t="s">
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45" t="s">
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45" t="s">
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="45"/>
-      <c r="O55" s="45"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A56" s="44" t="s">
+      <c r="A56" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45" t="s">
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="45" t="s">
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="K56" s="45"/>
-      <c r="L56" s="45"/>
-      <c r="M56" s="45"/>
-      <c r="N56" s="45"/>
-      <c r="O56" s="45"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A57" s="44" t="s">
+      <c r="A57" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="45" t="s">
+      <c r="B57" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45" t="s">
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45" t="s">
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="K57" s="45"/>
-      <c r="L57" s="45"/>
-      <c r="M57" s="45"/>
-      <c r="N57" s="45"/>
-      <c r="O57" s="45"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A58" s="44" t="s">
+      <c r="A58" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45" t="s">
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45" t="s">
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A59" s="44" t="s">
+      <c r="A59" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45" t="s">
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45" t="s">
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="K59" s="45"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="45"/>
-      <c r="N59" s="45"/>
-      <c r="O59" s="45"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="175">
@@ -2989,7 +4539,18 @@
     <mergeCell ref="F57:I57"/>
     <mergeCell ref="F58:I58"/>
     <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="J53:O53"/>
     <mergeCell ref="J54:O54"/>
     <mergeCell ref="J55:O55"/>
@@ -2999,9 +4560,6 @@
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="G50:H50"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="C48:D48"/>
@@ -3023,28 +4581,9 @@
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:F42"/>
+    <mergeCell ref="J36:O36"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A8:O8"/>
     <mergeCell ref="A14:O14"/>
@@ -3061,19 +4600,19 @@
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -3087,6 +4626,17 @@
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="K24:O24"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="I21:J21"/>
@@ -3103,10 +4653,6 @@
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:O18"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:O15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="I16:J16"/>
@@ -3119,6 +4665,20 @@
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K3:O3"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="I9:J9"/>
@@ -3138,16 +4698,1950 @@
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="K4:O4"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K3:O3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FC90C8-11CF-445F-A435-B8AAF624BE12}">
+  <dimension ref="A1:AB111"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B3" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B4" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B8" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B9" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B10" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B11" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B13" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B14" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B15" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="D22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="D23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="E24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+    </row>
+    <row r="26" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E26" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="E27" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="E28" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="E29" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="E30" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="D35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="D37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="C41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="C42" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="29"/>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="C43" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="C44" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="X44" s="47"/>
+      <c r="Y44" s="47"/>
+      <c r="Z44" s="47"/>
+      <c r="AA44" s="47"/>
+      <c r="AB44" s="47"/>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="C45" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="47"/>
+      <c r="X45" s="47"/>
+      <c r="Y45" s="47"/>
+      <c r="Z45" s="47"/>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="47"/>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="47"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="47"/>
+      <c r="W46" s="47"/>
+      <c r="X46" s="47"/>
+      <c r="Y46" s="47"/>
+      <c r="Z46" s="47"/>
+      <c r="AA46" s="47"/>
+      <c r="AB46" s="47"/>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="C49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="C50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="C51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D52" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="29"/>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D53" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="47"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="47"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="47"/>
+      <c r="Y53" s="47"/>
+      <c r="Z53" s="47"/>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D54" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="47"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="47"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="47"/>
+      <c r="Y54" s="47"/>
+      <c r="Z54" s="47"/>
+    </row>
+    <row r="55" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="47"/>
+      <c r="R55" s="47"/>
+      <c r="S55" s="47"/>
+      <c r="T55" s="47"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="47"/>
+      <c r="Y55" s="47"/>
+      <c r="Z55" s="47"/>
+    </row>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D56" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="P56" s="72"/>
+      <c r="Q56" s="72"/>
+      <c r="R56" s="72"/>
+      <c r="S56" s="72"/>
+      <c r="T56" s="72"/>
+      <c r="U56" s="72"/>
+      <c r="V56" s="72"/>
+      <c r="W56" s="72"/>
+      <c r="X56" s="72"/>
+      <c r="Y56" s="72"/>
+      <c r="Z56" s="72"/>
+    </row>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="72"/>
+      <c r="P57" s="72"/>
+      <c r="Q57" s="72"/>
+      <c r="R57" s="72"/>
+      <c r="S57" s="72"/>
+      <c r="T57" s="72"/>
+      <c r="U57" s="72"/>
+      <c r="V57" s="72"/>
+      <c r="W57" s="72"/>
+      <c r="X57" s="72"/>
+      <c r="Y57" s="72"/>
+      <c r="Z57" s="72"/>
+    </row>
+    <row r="58" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="C58" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="73"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="74"/>
+      <c r="O58" s="74"/>
+      <c r="P58" s="74"/>
+      <c r="Q58" s="74"/>
+      <c r="R58" s="74"/>
+      <c r="S58" s="74"/>
+      <c r="T58" s="74"/>
+      <c r="U58" s="74"/>
+      <c r="V58" s="74"/>
+      <c r="W58" s="74"/>
+      <c r="X58" s="74"/>
+      <c r="Y58" s="74"/>
+    </row>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="C59" s="73"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="74"/>
+      <c r="O59" s="74"/>
+      <c r="P59" s="74"/>
+      <c r="Q59" s="74"/>
+      <c r="R59" s="74"/>
+      <c r="S59" s="74"/>
+      <c r="T59" s="74"/>
+      <c r="U59" s="74"/>
+      <c r="V59" s="74"/>
+      <c r="W59" s="74"/>
+      <c r="X59" s="74"/>
+      <c r="Y59" s="74"/>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="C61" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D62" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="48"/>
+      <c r="P62" s="48"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="48"/>
+      <c r="S62" s="48"/>
+      <c r="T62" s="48"/>
+      <c r="U62" s="48"/>
+      <c r="V62" s="48"/>
+      <c r="W62" s="48"/>
+      <c r="X62" s="48"/>
+      <c r="Y62" s="48"/>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D63" s="18"/>
+      <c r="E63" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="M63" s="47"/>
+      <c r="N63" s="47"/>
+      <c r="O63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="47"/>
+      <c r="R63" s="47"/>
+      <c r="S63" s="47"/>
+      <c r="T63" s="47"/>
+      <c r="U63" s="47"/>
+      <c r="V63" s="47"/>
+      <c r="W63" s="47"/>
+      <c r="X63" s="47"/>
+      <c r="Y63" s="47"/>
+    </row>
+    <row r="64" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D64" s="46"/>
+      <c r="E64" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="49"/>
+      <c r="R64" s="49"/>
+      <c r="S64" s="49"/>
+      <c r="T64" s="49"/>
+      <c r="U64" s="49"/>
+      <c r="V64" s="49"/>
+      <c r="W64" s="49"/>
+      <c r="X64" s="49"/>
+      <c r="Y64" s="49"/>
+    </row>
+    <row r="65" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="D65" s="46"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="50"/>
+      <c r="N65" s="50"/>
+      <c r="O65" s="50"/>
+      <c r="P65" s="50"/>
+      <c r="Q65" s="50"/>
+      <c r="R65" s="50"/>
+      <c r="S65" s="50"/>
+      <c r="T65" s="50"/>
+      <c r="U65" s="50"/>
+      <c r="V65" s="50"/>
+      <c r="W65" s="50"/>
+      <c r="X65" s="50"/>
+      <c r="Y65" s="50"/>
+    </row>
+    <row r="66" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="D66" s="46"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="M66" s="47"/>
+      <c r="N66" s="47"/>
+      <c r="O66" s="47"/>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="47"/>
+      <c r="R66" s="47"/>
+      <c r="S66" s="47"/>
+      <c r="T66" s="47"/>
+      <c r="U66" s="47"/>
+      <c r="V66" s="47"/>
+      <c r="W66" s="47"/>
+      <c r="X66" s="47"/>
+      <c r="Y66" s="47"/>
+    </row>
+    <row r="67" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="D67" s="46"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="47"/>
+      <c r="N67" s="47"/>
+      <c r="O67" s="47"/>
+      <c r="P67" s="47"/>
+      <c r="Q67" s="47"/>
+      <c r="R67" s="47"/>
+      <c r="S67" s="47"/>
+      <c r="T67" s="47"/>
+      <c r="U67" s="47"/>
+      <c r="V67" s="47"/>
+      <c r="W67" s="47"/>
+      <c r="X67" s="47"/>
+      <c r="Y67" s="47"/>
+    </row>
+    <row r="68" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="D68" s="46"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="27"/>
+      <c r="R68" s="27"/>
+      <c r="S68" s="27"/>
+      <c r="T68" s="27"/>
+      <c r="U68" s="27"/>
+      <c r="V68" s="27"/>
+      <c r="W68" s="27"/>
+      <c r="X68" s="27"/>
+      <c r="Y68" s="27"/>
+    </row>
+    <row r="69" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="D69" s="46"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="27"/>
+      <c r="R69" s="27"/>
+      <c r="S69" s="27"/>
+      <c r="T69" s="27"/>
+      <c r="U69" s="27"/>
+      <c r="V69" s="27"/>
+      <c r="W69" s="27"/>
+      <c r="X69" s="27"/>
+      <c r="Y69" s="27"/>
+    </row>
+    <row r="70" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="D70" s="46"/>
+      <c r="E70" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="49"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="49"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="49"/>
+      <c r="Q70" s="49"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="49"/>
+      <c r="T70" s="49"/>
+      <c r="U70" s="49"/>
+      <c r="V70" s="49"/>
+      <c r="W70" s="49"/>
+      <c r="X70" s="49"/>
+      <c r="Y70" s="49"/>
+    </row>
+    <row r="71" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="D71" s="46"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="50"/>
+      <c r="M71" s="50"/>
+      <c r="N71" s="50"/>
+      <c r="O71" s="50"/>
+      <c r="P71" s="50"/>
+      <c r="Q71" s="50"/>
+      <c r="R71" s="50"/>
+      <c r="S71" s="50"/>
+      <c r="T71" s="50"/>
+      <c r="U71" s="50"/>
+      <c r="V71" s="50"/>
+      <c r="W71" s="50"/>
+      <c r="X71" s="50"/>
+      <c r="Y71" s="50"/>
+    </row>
+    <row r="72" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="D72" s="46"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="47"/>
+      <c r="Q72" s="47"/>
+      <c r="R72" s="47"/>
+      <c r="S72" s="47"/>
+      <c r="T72" s="47"/>
+      <c r="U72" s="47"/>
+      <c r="V72" s="47"/>
+      <c r="W72" s="47"/>
+      <c r="X72" s="47"/>
+      <c r="Y72" s="47"/>
+    </row>
+    <row r="73" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="D73" s="46"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="47"/>
+      <c r="O73" s="47"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="47"/>
+      <c r="R73" s="47"/>
+      <c r="S73" s="47"/>
+      <c r="T73" s="47"/>
+      <c r="U73" s="47"/>
+      <c r="V73" s="47"/>
+      <c r="W73" s="47"/>
+      <c r="X73" s="47"/>
+      <c r="Y73" s="47"/>
+    </row>
+    <row r="74" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="D74" s="46"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="27"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="27"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="27"/>
+      <c r="X74" s="27"/>
+      <c r="Y74" s="27"/>
+    </row>
+    <row r="75" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="D75" s="46"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="M75" s="27"/>
+      <c r="N75" s="27"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="27"/>
+      <c r="S75" s="27"/>
+      <c r="T75" s="27"/>
+      <c r="U75" s="27"/>
+      <c r="V75" s="27"/>
+      <c r="W75" s="27"/>
+      <c r="X75" s="27"/>
+      <c r="Y75" s="27"/>
+    </row>
+    <row r="76" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="D76" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="C77" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="D78" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="D79" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="C80" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="D81" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="D82" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="E83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="E84" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="D85" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="D86" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="D87" t="s">
+        <v>190</v>
+      </c>
+      <c r="H87" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="I87" s="43"/>
+      <c r="J87" s="43"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="43"/>
+      <c r="M87" s="43"/>
+      <c r="N87" s="43"/>
+      <c r="O87" s="43"/>
+      <c r="P87" s="43"/>
+      <c r="Q87" s="43"/>
+      <c r="R87" s="43"/>
+      <c r="S87" s="43"/>
+      <c r="T87" s="43"/>
+      <c r="U87" s="43"/>
+      <c r="V87" s="43"/>
+      <c r="W87" s="43"/>
+      <c r="X87" s="43"/>
+      <c r="Y87" s="43"/>
+      <c r="Z87" s="43"/>
+      <c r="AA87" s="43"/>
+      <c r="AB87" s="43"/>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="43"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="43"/>
+      <c r="M88" s="43"/>
+      <c r="N88" s="43"/>
+      <c r="O88" s="43"/>
+      <c r="P88" s="43"/>
+      <c r="Q88" s="43"/>
+      <c r="R88" s="43"/>
+      <c r="S88" s="43"/>
+      <c r="T88" s="43"/>
+      <c r="U88" s="43"/>
+      <c r="V88" s="43"/>
+      <c r="W88" s="43"/>
+      <c r="X88" s="43"/>
+      <c r="Y88" s="43"/>
+      <c r="Z88" s="43"/>
+      <c r="AA88" s="43"/>
+      <c r="AB88" s="43"/>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="D89" t="s">
+        <v>97</v>
+      </c>
+      <c r="J89" t="s">
+        <v>78</v>
+      </c>
+      <c r="O89" s="44"/>
+    </row>
+    <row r="90" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D90" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="77"/>
+      <c r="H90" s="77"/>
+      <c r="J90" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="K90" s="66"/>
+      <c r="L90" s="66"/>
+      <c r="M90" s="66"/>
+      <c r="N90" s="66"/>
+      <c r="O90" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="P90" s="44"/>
+      <c r="Q90" s="44"/>
+      <c r="R90" s="44"/>
+      <c r="S90" s="44"/>
+      <c r="T90" s="44"/>
+      <c r="U90" s="44"/>
+      <c r="V90" s="44"/>
+      <c r="W90" s="44"/>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="D91" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" t="s">
+        <v>194</v>
+      </c>
+      <c r="J91" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K91" s="27"/>
+      <c r="L91" s="27"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="27"/>
+      <c r="O91" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="44"/>
+      <c r="S91" s="44"/>
+      <c r="T91" s="44"/>
+      <c r="U91" s="44"/>
+      <c r="V91" s="44"/>
+      <c r="W91" s="44"/>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="D92" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" t="s">
+        <v>194</v>
+      </c>
+      <c r="J92" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K92" s="27"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="27"/>
+      <c r="N92" s="27"/>
+      <c r="O92" s="44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="J93" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="K93" s="27"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="27"/>
+      <c r="N93" s="27"/>
+      <c r="O93" s="76" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="J96" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>213</v>
+      </c>
+      <c r="J97" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>211</v>
+      </c>
+      <c r="J98" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>213</v>
+      </c>
+      <c r="J99" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>219</v>
+      </c>
+      <c r="J100" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>220</v>
+      </c>
+      <c r="J101" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J102" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J103" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J104" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J105" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J106" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J108" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J109" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J110" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="81">
+    <mergeCell ref="H87:AB88"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="G75:K75"/>
+    <mergeCell ref="L75:Y75"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="E70:Y70"/>
+    <mergeCell ref="F65:Y65"/>
+    <mergeCell ref="E64:Y64"/>
+    <mergeCell ref="F71:Y71"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="E71:E75"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="L69:Y69"/>
+    <mergeCell ref="G68:K68"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="G72:K73"/>
+    <mergeCell ref="L72:Y73"/>
+    <mergeCell ref="G74:K74"/>
+    <mergeCell ref="L74:Y74"/>
+    <mergeCell ref="B13:AB13"/>
+    <mergeCell ref="B14:AB14"/>
+    <mergeCell ref="B15:AB15"/>
+    <mergeCell ref="L66:Y67"/>
+    <mergeCell ref="G66:K67"/>
+    <mergeCell ref="L68:Y68"/>
+    <mergeCell ref="D63:D75"/>
+    <mergeCell ref="D62:Y62"/>
+    <mergeCell ref="L63:Y63"/>
+    <mergeCell ref="E63:K63"/>
+    <mergeCell ref="D56:N57"/>
+    <mergeCell ref="D54:N55"/>
+    <mergeCell ref="O54:Z55"/>
+    <mergeCell ref="O53:Z53"/>
+    <mergeCell ref="O56:Z57"/>
+    <mergeCell ref="O52:Z52"/>
+    <mergeCell ref="D52:N52"/>
+    <mergeCell ref="W44:AB46"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="W42:AB42"/>
+    <mergeCell ref="W43:AB43"/>
+    <mergeCell ref="J42:V42"/>
+    <mergeCell ref="D53:N53"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="J45:V46"/>
+    <mergeCell ref="C45:I46"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="J43:V43"/>
+    <mergeCell ref="J44:V44"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="B12:AB12"/>
+    <mergeCell ref="B10:AB10"/>
+    <mergeCell ref="B11:AB11"/>
+    <mergeCell ref="H3:U3"/>
+    <mergeCell ref="H4:U4"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B8:AB8"/>
+    <mergeCell ref="B9:AB9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DCDC1D-AAEE-4FA3-B7F8-D876D97AFFDA}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.875" customWidth="1"/>
+    <col min="8" max="8" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="61"/>
+      <c r="B3" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="61"/>
+      <c r="B4" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="18"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="46"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="18"/>
+      <c r="B8" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="46"/>
+      <c r="B9" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="46"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="46"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="46"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="46"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="46"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="46"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:E10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
